--- a/spreadsheet/lz_checklist.ja.xlsx
+++ b/spreadsheet/lz_checklist.ja.xlsx
@@ -6842,7 +6842,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、ゲスト内仮想マシン (VM) 構成のドリフトを監視します。ポリシーを使用してゲスト構成監査機能を有効にすると、アプリケーションチームのワークロードがわずかな労力で機能機能をすぐに使用できるようになります。</t>
+          <t>Azure Policy を使用して、ト内仮想マシン (VM) 構成のドリフトを監視します。ポリシーを使用してト構成監査機能を有効にすると、アプリケーションチームのワークロードがわずかな労力で機能機能をすぐに使用できるようになります。</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -8965,15 +8965,45 @@
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>物事を正しく行う</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>未検証</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-186e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
@@ -11035,7 +11065,7 @@
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F173" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/lz_checklist.ja.xlsx
+++ b/spreadsheet/lz_checklist.ja.xlsx
@@ -1134,7 +1134,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>984a859c-772f-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
